--- a/rootFolder/subTest-2/Scenario-PostUser200/Main.rvl.xlsx
+++ b/rootFolder/subTest-2/Scenario-PostUser200/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="223" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="514" uniqueCount="100">
   <si>
     <t>Flow</t>
   </si>
@@ -244,6 +244,75 @@
   </si>
   <si>
     <t>Condition</t>
+  </si>
+  <si>
+    <t>getAllObject</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>S Shanana</t>
+  </si>
+  <si>
+    <t>8863869972</t>
+  </si>
+  <si>
+    <t>Shahana S</t>
+  </si>
+  <si>
+    <t>SoftAssertNotNull</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>And assert name field not null</t>
+  </si>
+  <si>
+    <t>Sambit K Sahu</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>SoftAssertStartsWith</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>substr</t>
+  </si>
+  <si>
+    <t>name[]</t>
+  </si>
+  <si>
+    <t>name[0]</t>
+  </si>
+  <si>
+    <t>And assert name starts with</t>
+  </si>
+  <si>
+    <t>getAllUser</t>
+  </si>
+  <si>
+    <t>Sambit Sahu</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>And assert name starts with field name</t>
   </si>
 </sst>
 </file>
@@ -264,7 +333,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="177">
+  <borders count="224">
     <border>
       <left/>
       <right/>
@@ -448,11 +517,58 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -630,6 +746,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="191" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="192" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="194" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="195" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="196" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="197" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="198" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="199" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="200" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="201" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="202" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="203" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="204" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="205" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="206" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="207" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="208" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="209" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="210" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="211" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="212" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="213" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="214" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="215" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="216" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="217" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="218" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="219" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="220" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="221" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="222" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="223" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,7 +802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection/>
@@ -728,7 +891,7 @@
         <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -741,400 +904,597 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="165" t="s">
-        <v>7</v>
-      </c>
+      <c r="A5" s="180"/>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="167" t="s">
+      <c r="A6" s="189"/>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="167" t="s">
         <v>64</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="168"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="25" t="s">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="168"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B10" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C10" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="169" t="s">
+      <c r="D10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="169" t="s">
         <v>73</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>74</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="170"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="172"/>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="170"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="172" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="208" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G14" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="40"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42" t="s">
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="219"/>
+      <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="48"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50" t="s">
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="218"/>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="217"/>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="216"/>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="215"/>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53" t="s">
+      <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F19" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G19" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="56"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="57"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" s="220"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="65"/>
+      <c r="B22" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C22" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D22" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E22" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F22" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="71" t="s">
+      <c r="G22" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="72"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="73"/>
-      <c r="B17" s="74" t="s">
+      <c r="H22" s="72"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="73"/>
+      <c r="B23" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C23" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D23" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="77" t="s">
+      <c r="E23" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="78" t="s">
+      <c r="F23" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="79" t="s">
+      <c r="G23" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="80"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="81"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="88"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="89"/>
-      <c r="B19" s="90" t="s">
+      <c r="H23" s="80"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="81"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="88"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="89"/>
+      <c r="B25" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="93" t="s">
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F25" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="95" t="s">
+      <c r="G25" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="96"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="97"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="104"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="105"/>
-      <c r="B21" s="106" t="s">
+      <c r="H25" s="96"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="221"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="104"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="105"/>
+      <c r="B28" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C28" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="108" t="s">
+      <c r="D28" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="109" t="s">
+      <c r="E28" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="110" t="s">
+      <c r="F28" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="111" t="s">
+      <c r="G28" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="112"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="162"/>
-      <c r="B22" t="s">
+      <c r="H28" s="112"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="162"/>
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E29" t="s">
         <v>34</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F29" t="s">
         <v>35</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="163"/>
-      <c r="B23" t="s">
+    <row r="30">
+      <c r="A30" s="163"/>
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E30" t="s">
         <v>37</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F30" t="s">
         <v>66</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="113"/>
-      <c r="B24" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="120"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="175" t="s">
+    <row r="31">
+      <c r="A31" s="222"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="185" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="187"/>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="186"/>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="223"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="184" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="190"/>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="191"/>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="192"/>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="113"/>
+      <c r="B40" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="115"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="120"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B41" t="s">
         <v>75</v>
       </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="121"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="128"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="129"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="136"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="137"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="144"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="145"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="152"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="153"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="160"/>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="121"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="128"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="129"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="133"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="136"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="137"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="143"/>
+      <c r="H44" s="144"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="145"/>
+      <c r="B45" s="146"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="149"/>
+      <c r="F45" s="150"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="152"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="153"/>
+      <c r="B46" s="154"/>
+      <c r="C46" s="155"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="160"/>
     </row>
   </sheetData>
   <tableParts/>
